--- a/contract/HDSaison_template_LoanForm.xlsx
+++ b/contract/HDSaison_template_LoanForm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>STT</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Số điện thoại</t>
-  </si>
-  <si>
-    <t>CMND/CCCD</t>
   </si>
   <si>
     <t>Tỉnh/TP</t>
@@ -136,19 +133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -156,6 +146,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -506,19 +499,18 @@
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -529,11 +521,10 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -544,9 +535,8 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -557,56 +547,52 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:12" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K3"/>
+    <mergeCell ref="A1:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
